--- a/data/income_statement/1digit/size/J_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/J_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>J-Information and communication</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>J-Information and communication</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1154 +841,1304 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3279224.04586</v>
+        <v>3401895.17752</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3806939.75464</v>
+        <v>3960032.851450001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4398341.674110001</v>
+        <v>4553126.63125</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4764578.631469999</v>
+        <v>4966779.04893</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>6894558.86188</v>
+        <v>7242291.498869999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7820245.559440001</v>
+        <v>8098421.90145</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>9293041.437580001</v>
+        <v>9725833.780280001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9947918.084180001</v>
+        <v>10312862.31906</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>11869120.73234</v>
+        <v>12357370.05812</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>16948593.31277</v>
+        <v>17371113.16636</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>18508434.20558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19369434.89101</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>23991491.873</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3025400.16615</v>
+        <v>3131857.82507</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3529517.95758</v>
+        <v>3673587.72029</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4068013.16794</v>
+        <v>4203740.9235</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4383711.51057</v>
+        <v>4560421.848880001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6383816.21377</v>
+        <v>6688344.65367</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7153410.22339</v>
+        <v>7397495.673520001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8359241.85937</v>
+        <v>8751999.063719999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9000499.586780002</v>
+        <v>9331688.67062</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>10677170.34454</v>
+        <v>11128628.44718</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>14918024.41779</v>
+        <v>15259697.4337</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>16112839.30416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16796904.6529</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>20734291.639</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>168772.06547</v>
+        <v>174514.05863</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>183517.79494</v>
+        <v>190358.20387</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>222705.05981</v>
+        <v>241251.43286</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>247391.898</v>
+        <v>271094.78749</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>344929.61671</v>
+        <v>379925.31695</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>506310.56031</v>
+        <v>532029.18325</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>723156.7641100001</v>
+        <v>761733.31155</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>713458.6260400001</v>
+        <v>736236.79357</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>919710.34938</v>
+        <v>950794.2548899999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1658143.9688</v>
+        <v>1718691.2895</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1967116.2094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2144459.05601</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2753267.309</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>85051.81423999999</v>
+        <v>95523.29381999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>93904.00211999999</v>
+        <v>96086.92728999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>107623.44636</v>
+        <v>108134.27489</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>133475.2229</v>
+        <v>135262.41256</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>165813.0314</v>
+        <v>174021.52825</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>160524.77574</v>
+        <v>168897.04468</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>210642.8141</v>
+        <v>212101.40501</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>233959.87136</v>
+        <v>244936.85487</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>272240.0384199999</v>
+        <v>277947.35605</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>372424.92618</v>
+        <v>392724.44316</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>428478.69202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>428071.1821</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>503932.925</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>93936.37613000002</v>
+        <v>102730.86825</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>91378.77966000001</v>
+        <v>110521.57675</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>108693.8013</v>
+        <v>110200.87533</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>131569.23838</v>
+        <v>135738.25822</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>158015.37453</v>
+        <v>194197.7044199999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>174505.49229</v>
+        <v>181454.87378</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>198363.65967</v>
+        <v>239392.4635</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>201618.00448</v>
+        <v>230431.95931</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>262999.31584</v>
+        <v>287006.48482</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>480060.37259</v>
+        <v>534750.24972</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>512693.05078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>534604.4537899999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>698553.188</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>83169.09377000001</v>
+        <v>89119.93097999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>82958.89478999999</v>
+        <v>99539.09105</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>95400.30735</v>
+        <v>95384.97851999998</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>104467.25081</v>
+        <v>104084.04409</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>113990.48145</v>
+        <v>136865.96107</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>144715.30626</v>
+        <v>148642.86885</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>163678.6587</v>
+        <v>203378.97643</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>177019.556</v>
+        <v>200760.99906</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>221510.74136</v>
+        <v>243223.73242</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>420721.9473599999</v>
+        <v>439990.6413799999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>440596.02958</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>455151.97979</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>618247.324</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>9580.286940000002</v>
+        <v>12404.90808</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>6181.2228</v>
+        <v>8703.229200000002</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>9693.097459999999</v>
+        <v>11413.78241</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>21763.28817</v>
+        <v>25884.39619</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>38907.69731000001</v>
+        <v>52073.48140999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>21924.58899</v>
+        <v>24822.51695</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>24107.22733</v>
+        <v>24899.83282</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>16511.17512</v>
+        <v>20612.47869</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>27019.49733</v>
+        <v>29384.50936</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>34479.04555000001</v>
+        <v>69152.04617</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>50987.17575000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>57265.53897000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>63040.561</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1186.99542</v>
+        <v>1206.02919</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2238.66207</v>
+        <v>2279.2565</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3600.39649</v>
+        <v>3402.1144</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>5338.6994</v>
+        <v>5769.81794</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5117.195769999999</v>
+        <v>5258.26194</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7865.59704</v>
+        <v>7989.48798</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>10577.77364</v>
+        <v>11113.65425</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>8087.273359999999</v>
+        <v>9058.481559999998</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>14469.07715</v>
+        <v>14398.24304</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>24859.37968</v>
+        <v>25607.56217</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>21109.84545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>22186.93503</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>17265.303</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3185287.66973</v>
+        <v>3299164.30927</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3715560.97498</v>
+        <v>3849511.2747</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4289647.87281</v>
+        <v>4442925.755919999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4633009.393089999</v>
+        <v>4831040.79071</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>6736543.48735</v>
+        <v>7048093.79445</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7645740.06715</v>
+        <v>7916967.027669999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>9094677.777910002</v>
+        <v>9486441.316780001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>9746300.079700001</v>
+        <v>10082430.35975</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>11606121.4165</v>
+        <v>12070363.5733</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>16468532.94018</v>
+        <v>16836362.91664</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>17995741.1548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18834830.43722</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>23292938.685</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2286134.56239</v>
+        <v>2365856.097440001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2681718.25072</v>
+        <v>2765583.24933</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3094280.035640001</v>
+        <v>3200759.356499999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3303681.952490001</v>
+        <v>3446342.167189999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4864504.35163</v>
+        <v>5067316.832799999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5475420.411859999</v>
+        <v>5637690.45716</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6619866.32878</v>
+        <v>6850410.41049</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6982948.694940001</v>
+        <v>7204571.401389999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8267791.57614</v>
+        <v>8564383.72318</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11531517.90416</v>
+        <v>11749186.9431</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>12612073.71032</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13111641.69644</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>16153311.29</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>167139.6521</v>
+        <v>169835.80213</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>173243.81326</v>
+        <v>180527.73026</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>208608.57395</v>
+        <v>216342.75945</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>240317.63308</v>
+        <v>246978.63988</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>284375.13199</v>
+        <v>309092.14767</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>343112.95821</v>
+        <v>347493.9692199999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>386716.2606200001</v>
+        <v>407712.70971</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>363831.46143</v>
+        <v>383590.93186</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>421567.50989</v>
+        <v>450508.62239</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>857602.7987500001</v>
+        <v>929220.3372599999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>935778.3715300001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>996117.6306399999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1116252.34</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>884333.70045</v>
+        <v>897375.2304499999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1105653.56825</v>
+        <v>1117969.38357</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1279465.54448</v>
+        <v>1283210.83477</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1286399.11576</v>
+        <v>1296509.78949</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1877330.41153</v>
+        <v>1926462.46122</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1978524.38279</v>
+        <v>2010548.95721</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2587915.23</v>
+        <v>2628489.46688</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2739704.66777</v>
+        <v>2763297.17126</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3432633.68089</v>
+        <v>3480371.60298</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4428106.42928</v>
+        <v>4510059.737930001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4758306.3033</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4911825.45208</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6534420.23</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1228737.36869</v>
+        <v>1295358.03284</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1396138.16016</v>
+        <v>1460763.18549</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1598514.18027</v>
+        <v>1691791.32198</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1767153.4275</v>
+        <v>1891527.73865</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2687779.40296</v>
+        <v>2815137.71339</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3136093.48191</v>
+        <v>3262058.572399999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3619000.59294</v>
+        <v>3790970.61656</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3852563.6524</v>
+        <v>4032035.95845</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>4388638.5875</v>
+        <v>4606125.98847</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>6197293.48726</v>
+        <v>6262952.926620001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6845297.96002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7131015.17057</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>8436979.536</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>5923.841149999999</v>
+        <v>3287.03202</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>6682.70905</v>
+        <v>6322.95001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>7691.73694</v>
+        <v>9414.4403</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>9811.77615</v>
+        <v>11325.99917</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>15019.40515</v>
+        <v>16624.51052</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>17689.58895</v>
+        <v>17588.95833</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>26234.24522</v>
+        <v>23237.61734</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>26848.91334</v>
+        <v>25647.33982</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>24951.79786</v>
+        <v>27377.50934</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>48515.18887</v>
+        <v>46953.94129</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>72691.07547</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>72683.44315000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>65659.18399999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>899153.1073400001</v>
+        <v>933308.2118299999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1033842.72426</v>
+        <v>1083928.02537</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1195367.83717</v>
+        <v>1242166.39942</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1329327.4406</v>
+        <v>1384698.62352</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1872039.13572</v>
+        <v>1980776.96165</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2170319.65529</v>
+        <v>2279276.57051</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2474811.44913</v>
+        <v>2636030.90629</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2763351.38476</v>
+        <v>2877858.958360001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3338329.84036</v>
+        <v>3505979.850120001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4937015.036019999</v>
+        <v>5087175.973540001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5383667.444479999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5723188.74078</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7139627.395</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>739204.1852300001</v>
+        <v>783077.21283</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>843480.19762</v>
+        <v>885684.5638</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>959918.71347</v>
+        <v>989570.3003999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1072429.63165</v>
+        <v>1110573.34879</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1501827.98859</v>
+        <v>1572156.43818</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1736414.44181</v>
+        <v>1806333.39196</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1958430.98775</v>
+        <v>2130739.36938</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2236565.57835</v>
+        <v>2362793.10106</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2607686.669879999</v>
+        <v>2701641.32036</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3635377.20527</v>
+        <v>3693827.14077</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4017446.487559999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4179069.83268</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4630445.769</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>68348.50296</v>
+        <v>71326.39040999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>81219.02034</v>
+        <v>85904.20538</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>92510.93527</v>
+        <v>98125.96542000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>103388.07924</v>
+        <v>111957.75921</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>136326.86839</v>
+        <v>142883.50523</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>180913.74426</v>
+        <v>190234.24314</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>196406.15836</v>
+        <v>212565.71204</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>227190.06294</v>
+        <v>240361.62614</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>316963.89834</v>
+        <v>313640.95868</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>406659.06839</v>
+        <v>411102.31871</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>560432.6883600001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>564389.7484999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>724685.0870000001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>173316.34723</v>
+        <v>187807.35396</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>184340.17961</v>
+        <v>200258.83417</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>208984.82868</v>
+        <v>216540.58971</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>221859.21208</v>
+        <v>235956.25682</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>347742.6526500001</v>
+        <v>366676.56286</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>370726.3382800001</v>
+        <v>403531.1566999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>413749.76925</v>
+        <v>442199.30295</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>436812.9553</v>
+        <v>479470.3508300001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>517554.61489</v>
+        <v>562296.1218199999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>807724.6891100002</v>
+        <v>827661.3884399999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>913079.4934799999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>974623.0991199999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1043855.391</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>497539.33504</v>
+        <v>523943.46846</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>577920.99767</v>
+        <v>599521.52425</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>658422.9495199999</v>
+        <v>674903.74527</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>747182.3403299999</v>
+        <v>762659.3327599999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1017758.46755</v>
+        <v>1062596.37009</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1184774.35927</v>
+        <v>1212567.99212</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1348275.06014</v>
+        <v>1475974.35439</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1572562.56011</v>
+        <v>1642961.12409</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1773168.15665</v>
+        <v>1825704.23986</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2420993.44777</v>
+        <v>2455063.43362</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2543934.30572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2640056.98506</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2861905.291</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>159948.92211</v>
+        <v>150230.999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>190362.52664</v>
+        <v>198243.46157</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>235449.1237</v>
+        <v>252596.09902</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>256897.80895</v>
+        <v>274125.2747299999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>370211.14713</v>
+        <v>408620.52347</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>433905.21348</v>
+        <v>472943.17855</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>516380.46138</v>
+        <v>505291.53691</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>526785.80641</v>
+        <v>515065.8573</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>730643.17048</v>
+        <v>804338.5297599999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1301637.83075</v>
+        <v>1393348.83277</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1366220.95692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1544118.9081</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2509181.626</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>89247.72093000001</v>
+        <v>110326.43157</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>81890.40634999999</v>
+        <v>114364.95439</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>113394.21082</v>
+        <v>186760.21043</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>94188.05647999998</v>
+        <v>114762.75009</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>146366.30047</v>
+        <v>203063.35757</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>169417.9113</v>
+        <v>202912.99651</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>240616.69971</v>
+        <v>557017.66064</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>278605.73818</v>
+        <v>417592.9631699999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>278348.78071</v>
+        <v>391468.96385</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1232375.25541</v>
+        <v>1380648.25303</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>832943.80082</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>891440.4459699999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1594999.141</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4024.61414</v>
+        <v>5837.483109999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>256.1489</v>
+        <v>5204.710160000001</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>853.01262</v>
+        <v>1485.21545</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>3929.02306</v>
+        <v>4618.06643</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1960.93508</v>
+        <v>27092.72675</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>2503.73229</v>
+        <v>8835.201349999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>3805.660350000001</v>
+        <v>2467.76531</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>5008.62481</v>
+        <v>722.2622299999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>7473.86305</v>
+        <v>5263.08591</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>8831.057929999999</v>
+        <v>7603.83638</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>21300.25641</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>5025.32549</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>11172.304</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1448.83352</v>
+        <v>1444.87529</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>446.44064</v>
+        <v>2429.69592</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>413.4141199999999</v>
+        <v>54401.87387</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1974.43672</v>
+        <v>814.1046</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1855.71983</v>
+        <v>1335.42095</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3174.97616</v>
+        <v>8096.46357</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2776.55744</v>
+        <v>205941.23318</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>3035.28928</v>
+        <v>3687.02206</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>5974.517690000001</v>
+        <v>6673.97124</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>18836.74068</v>
+        <v>7074.22453</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>10553.51219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>5714.49044</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>31056.898</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>17743.8982</v>
+        <v>25935.07241</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>15004.09376</v>
+        <v>20659.55612</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>15752.19917</v>
+        <v>17961.23034</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>19522.16136</v>
+        <v>25059.72631</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>27069.46551</v>
+        <v>35220.50621</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>31084.05373</v>
+        <v>38496.23903</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>34444.23579</v>
+        <v>57883.68397999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>42749.33135</v>
+        <v>71676.16595</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>47901.81985</v>
+        <v>70075.54902999998</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>149847.45784</v>
+        <v>158864.06323</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>171969.69998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>193974.61862</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>148088.686</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>3287.35285</v>
+        <v>3265.60121</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>2391.41687</v>
+        <v>2398.12441</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1387.759</v>
+        <v>1234.60158</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1965.62604</v>
+        <v>1941.44264</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>3463.6476</v>
+        <v>3503.21289</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4269.54822</v>
+        <v>3708.58079</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3558.7186</v>
+        <v>5935.56233</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5709.045240000001</v>
+        <v>4055.99593</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3151.37701</v>
+        <v>3592.00468</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>16338.88716</v>
+        <v>16025.2566</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>35596.99094</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>35215.93887</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>31417.424</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1998.89374</v>
+        <v>1583.16669</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2971.22951</v>
+        <v>5578.979739999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2456.18947</v>
+        <v>2269.12615</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1786.4005</v>
+        <v>1197.60212</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4763.470999999999</v>
+        <v>5396.16821</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>5228.737349999999</v>
+        <v>5364.48301</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4916.57521</v>
+        <v>4547.524</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5191.76368</v>
+        <v>6004.34738</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3121.47286</v>
+        <v>3292.61825</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>6053.54625</v>
+        <v>5575.7075</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>12902.80061</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>12492.53474</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>13020.523</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>2411.5806</v>
+        <v>2200.94362</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1882.29447</v>
+        <v>1540.88622</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1435.38767</v>
+        <v>1558.37742</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2326.7608</v>
+        <v>2624.54394</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2488.31162</v>
+        <v>2578.36081</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>3363.28171</v>
+        <v>3799.98203</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5013.78611</v>
+        <v>6464.37911</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>5634.50101</v>
+        <v>4746.61466</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>7751.298579999999</v>
+        <v>10222.05816</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>10955.36751</v>
+        <v>10200.67477</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>22412.64595</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>12485.73735</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>25638.378</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>32960.26288</v>
+        <v>46354.95501</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>29705.08958000001</v>
+        <v>43669.76781</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>53999.52784</v>
+        <v>65958.14649</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>23588.40457</v>
+        <v>30703.39006</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>69128.17290999999</v>
+        <v>80211.77643</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>71239.95318000001</v>
+        <v>83159.55310999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>142103.96291</v>
+        <v>215666.11498</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>150337.07959</v>
+        <v>259623.12555</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>147550.29561</v>
+        <v>202772.73679</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>924335.42182</v>
+        <v>1053541.92209</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>450590.42671</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>508545.35772</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1193972.965</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>9517.857049999999</v>
+        <v>10049.14912</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>13331.39975</v>
+        <v>13771.81724</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>16801.65623</v>
+        <v>16961.76628</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>16183.4099</v>
+        <v>16268.99049</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>615.8051200000001</v>
+        <v>558.5495</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>577.5771799999999</v>
+        <v>425.38206</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>315.38943</v>
+        <v>73.6377</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>209.41679</v>
+        <v>259.44132</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>215.20115</v>
+        <v>763.43134</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>488.13145</v>
+        <v>261.55208</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>833.41759</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>873.08537</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1512.936</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>28.253</v>
+        <v>27.91795</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>4.92059</v>
+        <v>40.23965999999999</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>23.19517</v>
+        <v>15.331</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>48.88803</v>
@@ -2096,16 +2147,16 @@
         <v>13.981</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>225.69929</v>
+        <v>225.54929</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>100.74727</v>
+        <v>111.98227</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>12.97916</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>442.82724</v>
+        <v>439.72488</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>442.47561</v>
@@ -2113,293 +2164,333 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>15826.17495</v>
+        <v>13627.26716</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>15897.37228</v>
+        <v>19071.17711</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>20271.86953</v>
+        <v>24914.54185</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>22862.9455</v>
+        <v>31485.99547</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>35006.7908</v>
+        <v>47152.65482000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>47750.35219000001</v>
+        <v>50801.56226999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>43581.0666</v>
+        <v>57925.77778000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>60717.70727</v>
+        <v>66805.00893</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>54766.10767</v>
+        <v>88373.78357</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>96246.16916</v>
+        <v>121058.54024</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>106784.05044</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>117113.35737</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>139119.027</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>60727.19515</v>
+        <v>68844.11716000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>58894.20252000001</v>
+        <v>75930.79423999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>86838.70074</v>
+        <v>105379.80936</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>63391.84295000001</v>
+        <v>72512.09926999998</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>104035.81754</v>
+        <v>116168.44471</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>105459.83169</v>
+        <v>123696.35982</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>158358.59703</v>
+        <v>217477.45724</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>152648.46228</v>
+        <v>223760.71622</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>171945.87913</v>
+        <v>235324.55507</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>901402.4956800001</v>
+        <v>1054609.56087</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>540989.6590700001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>580397.1593499999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1112132.722</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2888.235899999999</v>
+        <v>4038.46571</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3384.19262</v>
+        <v>3655.00425</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>6583.794089999999</v>
+        <v>7002.46565</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>7048.370199999999</v>
+        <v>7874.57736</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>10903.40049</v>
+        <v>11216.12767</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>6867.855259999999</v>
+        <v>7213.64711</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>11033.16055</v>
+        <v>11662.2121</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>10953.96172</v>
+        <v>12940.61364</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>16056.70176</v>
+        <v>16618.74395</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>34667.9297</v>
+        <v>34385.97454</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>49924.23987</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>50587.51641999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>43648.868</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>6142.278010000001</v>
+        <v>6586.99226</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>7328.500129999999</v>
+        <v>11145.28972</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>4097.048680000001</v>
+        <v>4199.420059999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6496.53579</v>
+        <v>6933.56749</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>18035.09789</v>
+        <v>13887.01008</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>12712.03591</v>
+        <v>13995.76217</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>19250.4585</v>
+        <v>18969.93753</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>10471.95075</v>
+        <v>16960.44119</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>11046.29333</v>
+        <v>14982.88541</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>34763.2081</v>
+        <v>32381.68723</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>37351.34273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>33666.96933</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>32356.127</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>218.54755</v>
+        <v>191.61341</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>234.85974</v>
+        <v>176.41554</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>646.0983500000001</v>
+        <v>995.05529</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>375.81458</v>
+        <v>447.03706</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2601.20984</v>
+        <v>2383.33364</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>5182.505869999998</v>
+        <v>823.3945199999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1301.80469</v>
+        <v>2175.06776</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>430.76379</v>
+        <v>2518.582669999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>1584.18922</v>
+        <v>2558.66858</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>3489.56272</v>
+        <v>11426.46294</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2297.42496</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1971.67598</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>5170.291</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>37400.11940999999</v>
+        <v>42132.63712000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>30206.48394</v>
+        <v>43058.38023999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>49861.56382</v>
+        <v>67408.02734000002</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>22096.35026</v>
+        <v>28327.73722</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>60817.16359</v>
+        <v>77119.96598999998</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>70264.24010000001</v>
+        <v>85805.80035</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>116284.41892</v>
+        <v>169011.34329</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>118514.09161</v>
+        <v>173676.32437</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>128443.12171</v>
+        <v>181636.5689</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>806499.80065</v>
+        <v>948604.5407799999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>409464.07759</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>448597.94431</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>986498.603</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>48.05165</v>
+        <v>56.69934</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>44.80747</v>
+        <v>70.70098</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>162.29237</v>
+        <v>174.92155</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>11.65844</v>
+        <v>154.57756</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>403.09859</v>
+        <v>398.97542</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>318.9231799999999</v>
+        <v>3341.877190000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>258.83237</v>
+        <v>259.25825</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>116.62366</v>
+        <v>167.76016</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>210.99027</v>
+        <v>187.34911</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>882.38345</v>
+        <v>1099.6416</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>410.20487</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>132.77305</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1689.973</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>58.6234</v>
+        <v>49.30137</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>8.07611</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>23.25234</v>
+        <v>23.46469</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>1.9</v>
@@ -2411,13 +2502,13 @@
         <v>0.21216</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0.04729</v>
+        <v>0.04724</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>21.87097</v>
+        <v>21.6949</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0.14623</v>
+        <v>0.14609</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>22.44175</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1.641</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>13971.33923</v>
+        <v>15788.40795</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>17687.28251</v>
+        <v>17816.9274</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>25464.65109</v>
+        <v>25576.45478</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>27361.21368</v>
+        <v>28772.70258</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>11275.82269</v>
+        <v>11163.00746</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>10114.05921</v>
+        <v>12515.66632</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>10229.87471</v>
+        <v>15399.59107</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>12139.19978</v>
+        <v>17475.29929</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>14604.43661</v>
+        <v>19340.19303</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>21099.61106</v>
+        <v>26711.25378</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>41519.9273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>45417.83851000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>42767.219</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>38984.37884</v>
+        <v>53043.23318</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>36018.63686</v>
+        <v>48549.30695000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>48137.17745</v>
+        <v>59661.59469999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>52390.87625</v>
+        <v>60033.17696000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>61869.81192999999</v>
+        <v>76668.03416000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>64075.21661999999</v>
+        <v>90307.65555000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>83484.00100000002</v>
+        <v>122688.65266</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>94832.9531</v>
+        <v>192533.93184</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>111527.44438</v>
+        <v>165958.79459</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>239738.3778</v>
+        <v>233060.83779</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>262921.31974</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>292728.60429</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>250219.318</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>37944.44206</v>
+        <v>50129.74761</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>35547.5514</v>
+        <v>43981.68695</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>47077.51222</v>
+        <v>53178.49265000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>51071.2044</v>
+        <v>57551.76481000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>60653.84329999999</v>
+        <v>74970.14127000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>62841.78866999999</v>
+        <v>88517.88195000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>82272.46454</v>
+        <v>121679.37808</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>92699.92157999998</v>
+        <v>190375.73741</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>109053.35396</v>
+        <v>163838.01559</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>232256.56203</v>
+        <v>228377.8893</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>253130.09103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>285378.0845899999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>243196.779</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1039.93678</v>
+        <v>2913.48557</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>471.08546</v>
+        <v>4567.62</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1059.66523</v>
+        <v>6483.10205</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1319.67185</v>
+        <v>2481.41215</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1215.96863</v>
+        <v>1697.89289</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1233.42795</v>
+        <v>1789.7736</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1211.53646</v>
+        <v>1009.27458</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2133.03152</v>
+        <v>2158.19443</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2474.09042</v>
+        <v>2120.779</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>7481.815769999999</v>
+        <v>4682.948490000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>9791.228710000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>7350.5197</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7022.539</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>149485.06905</v>
+        <v>138670.08023</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>177340.09361</v>
+        <v>188128.31477</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>213867.45633</v>
+        <v>274314.90539</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>235303.14623</v>
+        <v>256342.74859</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>350671.81813</v>
+        <v>418847.4021700001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>433788.07647</v>
+        <v>461852.15969</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>515154.56306</v>
+        <v>722143.08765</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>557910.1292099999</v>
+        <v>516364.1724099999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>725518.62768</v>
+        <v>794524.1439500001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1392872.21268</v>
+        <v>1486326.68714</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1395253.77893</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1562433.59043</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2741828.727</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>18235.91329</v>
+        <v>19053.66544</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>20708.77466</v>
+        <v>24115.93747</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>25465.86316</v>
+        <v>37788.94756000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>32179.34414</v>
+        <v>48441.01001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>52725.66729999999</v>
+        <v>65569.56761000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>69718.60068999999</v>
+        <v>70941.10747</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>69173.10662000001</v>
+        <v>79281.65176999998</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>84694.30389</v>
+        <v>97041.88321999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>87038.61056</v>
+        <v>101703.49485</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>145876.9136</v>
+        <v>128366.86074</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>171767.33595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>169754.53198</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>213261.115</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1230.3378</v>
+        <v>1446.26522</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>782.06326</v>
+        <v>3156.32417</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1014.56747</v>
+        <v>2376.59842</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2869.00724</v>
+        <v>3676.63456</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2413.09569</v>
+        <v>2938.82848</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>959.4108899999999</v>
+        <v>2331.63371</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2067.36436</v>
+        <v>3044.940360000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>4211.904090000001</v>
+        <v>5468.41571</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1901.74689</v>
+        <v>3039.64719</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3413.56122</v>
+        <v>4149.7834</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>9526.214699999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>10439.66827</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2053.277</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>17005.57549</v>
+        <v>17607.40022</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>19926.7114</v>
+        <v>20959.6133</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>24451.29569</v>
+        <v>35412.34913999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>29310.3369</v>
+        <v>44764.37544999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>50312.57161</v>
+        <v>62630.73913</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>68759.18979999999</v>
+        <v>68609.47376000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>67105.74226</v>
+        <v>76236.71141</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>80482.39979999998</v>
+        <v>91573.46751</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>85136.86367000001</v>
+        <v>98663.84766000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>142463.35238</v>
+        <v>124217.07734</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>162241.12125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>159314.86371</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>211207.838</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>36325.97691</v>
+        <v>37689.73564</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>48591.46311</v>
+        <v>45197.31808</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>358386.09071</v>
+        <v>360359.51779</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>66257.34489000001</v>
+        <v>67705.12715</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>70192.27167000002</v>
+        <v>85650.55724000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>220109.1204</v>
+        <v>213455.67327</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>76954.7598</v>
+        <v>80011.37258000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>440527.79498</v>
+        <v>463940.477</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>108158.00462</v>
+        <v>167081.87174</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>405659.41197</v>
+        <v>411377.68409</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>179009.26681</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>187785.83468</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>231563.707</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>630.1800700000001</v>
+        <v>602.2530099999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1466.74407</v>
+        <v>1679.45047</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>452.14986</v>
+        <v>453.84986</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1216.10921</v>
+        <v>1210.09527</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>96.59298999999999</v>
+        <v>94.87629000000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>180.58526</v>
+        <v>180.58525</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>144.61943</v>
+        <v>3203.29153</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>168.41686</v>
+        <v>166.16718</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>720.70151</v>
+        <v>506.27154</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>574.94892</v>
+        <v>1500.5226</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1819.95125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>698.5638500000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1420.215</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2874.25118</v>
+        <v>3299.206479999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2662.5635</v>
+        <v>2755.84712</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>8501.51691</v>
+        <v>8575.119760000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2919.03492</v>
+        <v>2972.59692</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4623.90968</v>
+        <v>5107.442730000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5801.79669</v>
+        <v>6831.760840000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>19179.21113</v>
+        <v>21262.78102</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5815.83194</v>
+        <v>4325.967110000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5132.09128</v>
+        <v>5092.03796</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>8840.64625</v>
+        <v>17349.80536</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>13260.25814</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>18798.54730000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>14818.492</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>32821.54566</v>
+        <v>33788.27615</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>44462.15554</v>
+        <v>40762.02049</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>349432.4239400001</v>
+        <v>351330.54817</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>62122.20076</v>
+        <v>63522.43495999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>65471.76900000001</v>
+        <v>80448.23822000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>214126.73845</v>
+        <v>206443.32718</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>57630.92924</v>
+        <v>55545.30003000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>434543.5461800001</v>
+        <v>459448.34271</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>102305.21183</v>
+        <v>161483.56224</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>396243.8168</v>
+        <v>392527.35613</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>163929.05742</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>168288.72353</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>215325</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>131395.00543</v>
+        <v>120034.01003</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>149457.40516</v>
+        <v>167046.93416</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-119052.77122</v>
+        <v>-48255.66484</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>201225.14548</v>
+        <v>237078.63145</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>333205.21376</v>
+        <v>398766.41254</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>283397.5567600001</v>
+        <v>319337.59389</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>507372.90988</v>
+        <v>721413.36684</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>202076.63812</v>
+        <v>149465.57863</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>704399.2336200001</v>
+        <v>729145.76706</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1133089.71431</v>
+        <v>1203315.86379</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1388011.84807</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1544402.28773</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2723526.135</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>32817.44872</v>
+        <v>34321.37384</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>38607.70482</v>
+        <v>41512.29684</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>46913.49064</v>
+        <v>48618.27608</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>53666.62981000001</v>
+        <v>54810.54554</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>83575.80997999999</v>
+        <v>88015.5523</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>97347.15274999999</v>
+        <v>102266.75069</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>102526.36446</v>
+        <v>113592.42028</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>115489.83469</v>
+        <v>123464.21267</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>133801.29319</v>
+        <v>142993.31377</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>241619.73176</v>
+        <v>241166.61994</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>238180.89012</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>258104.10625</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>389263.925</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>98577.55670999999</v>
+        <v>85712.63619000002</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>110849.70034</v>
+        <v>125534.63732</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-165966.26186</v>
+        <v>-96873.94091999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>147558.51567</v>
+        <v>182268.08591</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>249629.40378</v>
+        <v>310750.86024</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>186050.40401</v>
+        <v>217070.8432</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>404846.54542</v>
+        <v>607820.9465600001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>86586.80343</v>
+        <v>26001.36595999998</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>570597.94043</v>
+        <v>586152.4532900001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>891469.98255</v>
+        <v>962149.24385</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1149830.95795</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1286298.18148</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2334262.21</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1733</v>
+        <v>1507</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1994</v>
+        <v>1721</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2193</v>
+        <v>1920</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2414</v>
+        <v>2085</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2845</v>
+        <v>2367</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3178</v>
+        <v>2646</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3591</v>
+        <v>2925</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4051</v>
+        <v>3077</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>4603</v>
+        <v>3460</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3235</v>
+        <v>2761</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3445</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2899</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>